--- a/策划用_配置表/baijian.xlsx
+++ b/策划用_配置表/baijian.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\策划用_配置表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EABCF52-1C57-4C45-BBF8-BA1AF41DC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="3120" yWindow="1710" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,13 +53,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -60,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -68,13 +78,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -83,6 +94,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -91,13 +103,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -106,6 +119,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -114,13 +128,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -129,6 +144,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -137,13 +153,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -152,6 +169,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -160,13 +178,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -175,6 +194,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -183,13 +203,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -198,6 +219,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -211,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>摆件ID</t>
   </si>
@@ -310,19 +332,77 @@
   </si>
   <si>
     <t>盛宴掉落，必定掉落子弹+血包+金币</t>
+  </si>
+  <si>
+    <r>
+      <t>新I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>E401</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>E402</t>
+  </si>
+  <si>
+    <t>E403</t>
+  </si>
+  <si>
+    <t>E404</t>
+  </si>
+  <si>
+    <t>E407</t>
+  </si>
+  <si>
+    <t>E408</t>
+  </si>
+  <si>
+    <t>E409</t>
+  </si>
+  <si>
+    <r>
+      <t>E40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E406</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,169 +411,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,212 +455,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -725,225 +483,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,62 +502,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1295,70 +810,73 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="6" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="10" width="16.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="45.75" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="11" width="16.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1384,27 +902,30 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="2">
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1416,27 +937,30 @@
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2">
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1448,27 +972,30 @@
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1480,61 +1007,67 @@
       <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
-      <c r="C6" s="1">
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1">
         <v>1003</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>100</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1004</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>100</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1544,61 +1077,67 @@
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
-      <c r="C8" s="1">
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1">
         <v>1003</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>100</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1004</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>100</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1608,100 +1147,109 @@
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
-      <c r="C10" s="1">
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
         <v>1001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>100</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>70</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
       <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
         <v>100</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>100</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="9:9">
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="9:9">
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="9:9">
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="9:9">
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="9:9">
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="9:9">
-      <c r="I31"/>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J31"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/策划用_配置表/baijian.xlsx
+++ b/策划用_配置表/baijian.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\策划用_配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EABCF52-1C57-4C45-BBF8-BA1AF41DC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1710" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15195" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,19 +17,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -44,7 +37,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,14 +45,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -69,7 +60,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,14 +68,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -94,7 +83,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -103,14 +91,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -119,7 +106,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -128,14 +114,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -144,7 +129,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -153,14 +137,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -169,7 +152,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -178,14 +160,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -194,7 +175,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -203,14 +183,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -219,7 +198,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -238,103 +216,14 @@
     <t>摆件ID</t>
   </si>
   <si>
-    <t>摆件图标资源</t>
-  </si>
-  <si>
-    <t>掉落物品组1</t>
-  </si>
-  <si>
-    <t>掉落物品组1权重</t>
-  </si>
-  <si>
-    <t>掉落物品组1数量</t>
-  </si>
-  <si>
-    <t>掉落物品组1概率</t>
-  </si>
-  <si>
-    <t>掉落物品组2</t>
-  </si>
-  <si>
-    <t>掉落物品组2权重</t>
-  </si>
-  <si>
-    <t>掉落物品组2数量</t>
-  </si>
-  <si>
-    <t>备注（仅供参考用）</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>空摆件</t>
-  </si>
-  <si>
-    <t>1001|1003|1004|1005</t>
-  </si>
-  <si>
-    <t>10|30|30|3</t>
-  </si>
-  <si>
-    <t>可能是空罐子1号</t>
-  </si>
-  <si>
-    <t>可能是空罐子2号</t>
-  </si>
-  <si>
-    <t>可能是空罐子3号</t>
-  </si>
-  <si>
-    <t>子弹补充罐</t>
-  </si>
-  <si>
-    <t>1005|1006</t>
-  </si>
-  <si>
-    <t>90|10</t>
-  </si>
-  <si>
-    <t>血包罐</t>
-  </si>
-  <si>
-    <t>高级子弹罐</t>
-  </si>
-  <si>
-    <t>1007|1006</t>
-  </si>
-  <si>
-    <t>20|80</t>
-  </si>
-  <si>
-    <t>高级血包罐</t>
-  </si>
-  <si>
-    <t>1001|1002</t>
-  </si>
-  <si>
-    <t>70|30</t>
-  </si>
-  <si>
-    <t>大量金币罐</t>
-  </si>
-  <si>
-    <t>1001|1002|1003|1004</t>
-  </si>
-  <si>
-    <t>80|10|80|80</t>
-  </si>
-  <si>
-    <t>1001|1005|1006|1007</t>
-  </si>
-  <si>
-    <t>100|80|17|3</t>
-  </si>
-  <si>
-    <t>盛宴掉落，必定掉落子弹+血包+金币</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>新I</t>
     </r>
     <r>
@@ -342,42 +231,87 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（仅供参考用）</t>
+  </si>
+  <si>
+    <t>摆件图标资源</t>
+  </si>
+  <si>
+    <t>掉落物品组1</t>
+  </si>
+  <si>
+    <t>掉落物品组1权重</t>
+  </si>
+  <si>
+    <t>掉落物品组1数量</t>
+  </si>
+  <si>
+    <t>掉落物品组1概率</t>
+  </si>
+  <si>
+    <t>掉落物品组2</t>
+  </si>
+  <si>
+    <t>掉落物品组2权重</t>
+  </si>
+  <si>
+    <t>掉落物品组2数量</t>
   </si>
   <si>
     <t>E000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>空摆件</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
   <si>
     <t>E401</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是空罐子1号</t>
+  </si>
+  <si>
+    <t>1001|1003|1004|1005</t>
+  </si>
+  <si>
+    <t>10|30|30|3</t>
   </si>
   <si>
     <t>E402</t>
   </si>
   <si>
+    <t>可能是空罐子2号</t>
+  </si>
+  <si>
     <t>E403</t>
   </si>
   <si>
+    <t>可能是空罐子3号</t>
+  </si>
+  <si>
     <t>E404</t>
   </si>
   <si>
-    <t>E407</t>
-  </si>
-  <si>
-    <t>E408</t>
-  </si>
-  <si>
-    <t>E409</t>
+    <t>子弹补充罐</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>E40</t>
     </r>
     <r>
@@ -385,24 +319,81 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>血包罐</t>
+  </si>
+  <si>
+    <t>1005|1006</t>
+  </si>
+  <si>
+    <t>90|10</t>
   </si>
   <si>
     <t>E406</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级子弹罐</t>
+  </si>
+  <si>
+    <t>E407</t>
+  </si>
+  <si>
+    <t>高级血包罐</t>
+  </si>
+  <si>
+    <t>1007|1006</t>
+  </si>
+  <si>
+    <t>20|80</t>
+  </si>
+  <si>
+    <t>E408</t>
+  </si>
+  <si>
+    <t>大量金币罐</t>
+  </si>
+  <si>
+    <t>1001|1002</t>
+  </si>
+  <si>
+    <t>70|30</t>
+  </si>
+  <si>
+    <t>E409</t>
+  </si>
+  <si>
+    <t>盛宴掉落，必定掉落子弹+血包+金币</t>
+  </si>
+  <si>
+    <t>1001|1002|1003|1004</t>
+  </si>
+  <si>
+    <t>80|10|80|80</t>
+  </si>
+  <si>
+    <t>1001|1005|1006|1007</t>
+  </si>
+  <si>
+    <t>100|80|17|3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,39 +405,166 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,8 +577,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -483,12 +781,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -499,31 +1021,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="13" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="注释" xfId="1" builtinId="10"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -810,457 +1375,457 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
-    <col min="9" max="11" width="16.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="45.75" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
+    <col min="10" max="12" width="16.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="4">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
         <v>1003</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1004</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>100</v>
       </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
         <v>1003</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1004</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1">
         <v>1001</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1">
         <v>3</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>70</v>
       </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>100</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="1">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>100</v>
       </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J25"/>
+    <row r="25" spans="11:11">
+      <c r="K25"/>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J26"/>
+    <row r="26" spans="11:11">
+      <c r="K26"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J27"/>
+    <row r="27" spans="11:11">
+      <c r="K27"/>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J28"/>
+    <row r="28" spans="11:11">
+      <c r="K28"/>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J29"/>
+    <row r="29" spans="11:11">
+      <c r="K29"/>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J30"/>
+    <row r="30" spans="11:11">
+      <c r="K30"/>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J31"/>
+    <row r="31" spans="11:11">
+      <c r="K31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="1">
-    <comment s:ref="D1" rgbClr="18C5A4"/>
-    <comment s:ref="G1" rgbClr="18C5A4"/>
+    <comment s:ref="E1" rgbClr="18C5A4"/>
     <comment s:ref="H1" rgbClr="18C5A4"/>
     <comment s:ref="I1" rgbClr="18C5A4"/>
     <comment s:ref="J1" rgbClr="18C5A4"/>
+    <comment s:ref="K1" rgbClr="18C5A4"/>
   </commentList>
 </comments>
 </file>
